--- a/EL - Electrical/Autre/Tableau de bord/Carte élecs/Afficheur rapport/rapport_BOM.xlsx
+++ b/EL - Electrical/Autre/Tableau de bord/Carte élecs/Afficheur rapport/rapport_BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\Tableau de bord\Carte élecs\Afficheur rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC4E8F5F-7934-46C0-A69F-344BBA935467}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B3096D-6046-4213-AD1B-6F9F655CFACD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rapport_BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
   <si>
     <t>Part</t>
   </si>
@@ -149,13 +149,25 @@
   </si>
   <si>
     <t>679-5596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je sais pas </t>
+  </si>
+  <si>
+    <t>716-7282</t>
+  </si>
+  <si>
+    <t>831-3026</t>
+  </si>
+  <si>
+    <t>J'ai trouvé que 120 pF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,8 +309,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,8 +509,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -607,12 +632,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -660,20 +717,37 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -720,7 +794,21 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1056,11 +1144,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,357 +1160,394 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="L2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="L3" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>470</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>470</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>470</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>470</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>470</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="5">
         <v>470</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="5">
         <v>470</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H3:I4"/>
+  </mergeCells>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="oui">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="oui">
       <formula>NOT(ISERROR(SEARCH("oui",G8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F15">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="oui">
+  <conditionalFormatting sqref="F2:F16">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="oui">
       <formula>NOT(ISERROR(SEARCH("oui",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F16">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="oui">
+      <formula>NOT(ISERROR(SEARCH("oui",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="non">
+      <formula>NOT(ISERROR(SEARCH("non",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Je sais pas">
+      <formula>NOT(ISERROR(SEARCH("Je sais pas",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F16">
-      <formula1>$L$1:$L$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F16" xr:uid="{31B2567A-6A35-4B7E-8C3A-82461EFBD954}">
+      <formula1>$L$1:$L$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EL - Electrical/Autre/Tableau de bord/Carte élecs/Afficheur rapport/rapport_BOM.xlsx
+++ b/EL - Electrical/Autre/Tableau de bord/Carte élecs/Afficheur rapport/rapport_BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\Tableau de bord\Carte élecs\Afficheur rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B3096D-6046-4213-AD1B-6F9F655CFACD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2533967A-56FE-4A32-8BCF-9CC4E7B78526}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
-    <sheet name="rapport_BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="rapport_bom" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
-  <si>
-    <t>Part</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+  <si>
+    <t>Qty</t>
   </si>
   <si>
     <t>Value</t>
@@ -31,13 +31,40 @@
     <t>Device</t>
   </si>
   <si>
-    <t>Package</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>C1</t>
+    <t>Dispo au garage ?</t>
+  </si>
+  <si>
+    <t>Référence RS</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>R-EU_0204/7</t>
+  </si>
+  <si>
+    <t>RESISTOR, European symbol</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>22-23-2041</t>
+  </si>
+  <si>
+    <t>.100 (2.54mm) Center Header - 4 Pin"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je sais pas </t>
+  </si>
+  <si>
+    <t>679-5596</t>
   </si>
   <si>
     <t>500pF</t>
@@ -46,127 +73,28 @@
     <t>C-EU025-025X050</t>
   </si>
   <si>
-    <t>C025-025X050</t>
-  </si>
-  <si>
     <t>CAPACITOR, European symbol</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>135pF</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>135 pF</t>
-  </si>
-  <si>
-    <t>IC1</t>
+    <t>831-3026</t>
+  </si>
+  <si>
+    <t>7-SEG_SA10-21</t>
+  </si>
+  <si>
+    <t>Kingbright 14.2mm (0.56 INCH) SINGLE DIGIT NUMERIC DUISPLAY</t>
   </si>
   <si>
     <t>MCP23008P</t>
   </si>
   <si>
-    <t>DIL18</t>
-  </si>
-  <si>
     <t>8-Bit I/O Expander with I2C Interface</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>7-SEG_SA10-21</t>
-  </si>
-  <si>
-    <t>SA10-21</t>
-  </si>
-  <si>
-    <t>Kingbright 14.2mm (0.56 INCH) SINGLE DIGIT NUMERIC DUISPLAY</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>R-EU_0204/7</t>
-  </si>
-  <si>
-    <t>0204/7</t>
-  </si>
-  <si>
-    <t>RESISTOR, European symbol</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>RA</t>
-  </si>
-  <si>
-    <t>RB</t>
-  </si>
-  <si>
-    <t>RC</t>
-  </si>
-  <si>
-    <t>RD</t>
-  </si>
-  <si>
-    <t>RE</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>RG</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>22-23-2041</t>
-  </si>
-  <si>
-    <t>.100 (2.54mm) Center Header - 4 Pin"</t>
-  </si>
-  <si>
-    <t>Dispo au garage ?</t>
-  </si>
-  <si>
-    <t>Référence RS</t>
-  </si>
-  <si>
-    <t>oui</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>679-5596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je sais pas </t>
-  </si>
-  <si>
-    <t>716-7282</t>
-  </si>
-  <si>
-    <t>831-3026</t>
-  </si>
-  <si>
-    <t>J'ai trouvé que 120 pF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,21 +231,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13.2"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,24 +424,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF5050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -632,6 +543,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -647,26 +573,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -717,37 +630,28 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -794,7 +698,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -812,7 +723,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1144,413 +1055,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>40</v>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="L1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B4" s="3">
+        <v>470</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="L3" s="3" t="s">
-        <v>43</v>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="5">
-        <v>470</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="5">
-        <v>470</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="5">
-        <v>470</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="5">
-        <v>470</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="5">
-        <v>470</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="5">
-        <v>470</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="5">
-        <v>470</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H3:I4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="oui">
-      <formula>NOT(ISERROR(SEARCH("oui",G8)))</formula>
+  <conditionalFormatting sqref="E2:E7">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="non">
+      <formula>NOT(ISERROR(SEARCH("non",E2)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F16">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="oui">
-      <formula>NOT(ISERROR(SEARCH("oui",F2)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Je sais pas">
+      <formula>NOT(ISERROR(SEARCH("Je sais pas",E2)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F16">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="oui">
-      <formula>NOT(ISERROR(SEARCH("oui",F2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="non">
-      <formula>NOT(ISERROR(SEARCH("non",F2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Je sais pas">
-      <formula>NOT(ISERROR(SEARCH("Je sais pas",F2)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="oui">
+      <formula>NOT(ISERROR(SEARCH("oui",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F16" xr:uid="{31B2567A-6A35-4B7E-8C3A-82461EFBD954}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>$L$1:$L$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>